--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -561,10 +561,10 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
         <v>0.006603925137333333</v>
@@ -573,10 +573,10 @@
         <v>0.059435326236</v>
       </c>
       <c r="S2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="T2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>0.02109832838533334</v>
+        <v>0.2800659258742222</v>
       </c>
       <c r="R3">
-        <v>0.189884955468</v>
+        <v>2.520593332868001</v>
       </c>
       <c r="S3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="T3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>0.04948968082933334</v>
+        <v>0.1232130365728889</v>
       </c>
       <c r="R4">
-        <v>0.4454071274640001</v>
+        <v>1.108917329156</v>
       </c>
       <c r="S4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="T4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
     </row>
   </sheetData>
